--- a/Project Outputs for NFC_3911_Project/BOMModelLCSC.xlsx
+++ b/Project Outputs for NFC_3911_Project/BOMModelLCSC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5E6D5C-071B-40F8-B0C7-736CFD88EE02}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51F01C9-FE6B-4BED-B700-28A1370EEB9E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5520" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM清单" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,6 +346,10 @@
   </si>
   <si>
     <t xml:space="preserve"> 项目物料BOM清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻值/容值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +434,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -484,21 +488,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="1" tint="0.499984740745262"/>
       </left>
@@ -519,21 +508,6 @@
       </left>
       <right style="thin">
         <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="1" tint="0.499984740745262"/>
       </right>
       <top style="thin">
         <color theme="0" tint="-0.249977111117893"/>
@@ -556,11 +530,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -586,9 +614,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -596,15 +621,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -622,16 +641,16 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -640,12 +659,29 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -988,11 +1024,11 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1000,7 +1036,7 @@
     <col min="1" max="1" width="6.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="37.875" style="21" customWidth="1"/>
     <col min="5" max="5" width="11.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="4" customWidth="1"/>
@@ -1008,545 +1044,570 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="30" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I2" s="33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="18" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="7">
         <v>15</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="30" t="s">
+      <c r="G3" s="31"/>
+      <c r="H3" s="31" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12">
+      <c r="I3" s="34"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="9">
         <v>30</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="32" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="19" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="9">
         <v>45</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="32" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12">
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="9">
         <v>45</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="28"/>
+      <c r="G6" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="32" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12">
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="9">
         <v>105</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="28"/>
+      <c r="G7" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="32" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12">
+      <c r="I7" s="33"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="9">
         <v>30</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="28"/>
+      <c r="G8" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12">
-        <v>7</v>
-      </c>
-      <c r="B9" s="26" t="s">
+      <c r="I8" s="33"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11">
+        <v>150</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="9">
         <v>105</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="28"/>
+      <c r="G9" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="32" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12">
+      <c r="I9" s="33"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="9">
         <v>45</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="13" t="s">
+      <c r="F10" s="28"/>
+      <c r="G10" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="32" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12">
+      <c r="I10" s="33"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="22"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="9">
         <v>30</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="13" t="s">
+      <c r="F11" s="28"/>
+      <c r="G11" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="32" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12">
+      <c r="I11" s="33"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="22"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="9">
         <v>30</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="13" t="s">
+      <c r="F12" s="28"/>
+      <c r="G12" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="32" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="12">
+      <c r="I12" s="33"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="22"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="9">
         <v>30</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="28"/>
+      <c r="G13" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="32" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12">
+      <c r="I13" s="33"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="9">
         <v>30</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="13" t="s">
+      <c r="F14" s="28"/>
+      <c r="G14" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="32" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="12">
+      <c r="I14" s="33"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="9">
         <v>30</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="13" t="s">
+      <c r="F15" s="28"/>
+      <c r="G15" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="32" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="12">
+      <c r="I15" s="33"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="11">
         <v>14</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="22"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="9">
         <v>30</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="13" t="s">
+      <c r="F16" s="28"/>
+      <c r="G16" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="32" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="12">
+      <c r="I16" s="33"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="22"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="9">
         <v>30</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="28"/>
+      <c r="G17" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="32" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12">
+      <c r="I17" s="33"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="22"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="9">
         <v>30</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="13" t="s">
+      <c r="F18" s="28"/>
+      <c r="G18" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="32" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="12">
+      <c r="I18" s="33"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="22"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="9">
         <v>60</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="13" t="s">
+      <c r="F19" s="28"/>
+      <c r="G19" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="32" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12">
+      <c r="I19" s="33"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="11">
         <v>18</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="22"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="9">
         <v>45</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="13" t="s">
+      <c r="F20" s="28"/>
+      <c r="G20" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="32" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="12">
+      <c r="I20" s="33"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="11">
         <v>19</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="22"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="9">
         <v>15</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="13" t="s">
+      <c r="F21" s="28"/>
+      <c r="G21" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="32" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="12">
+      <c r="I21" s="33"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="11">
         <v>20</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="22"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="9">
         <v>50</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="13" t="s">
+      <c r="F22" s="28"/>
+      <c r="G22" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="32" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="12">
+      <c r="I22" s="33"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="11">
         <v>21</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="22"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="9">
         <v>15</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="13" t="s">
+      <c r="F23" s="28"/>
+      <c r="G23" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="32" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:8" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="I23" s="33"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="33"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:9" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
